--- a/teaching/traditional_assets/database/data/netherlands/netherlands_entertainment.xlsx
+++ b/teaching/traditional_assets/database/data/netherlands/netherlands_entertainment.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.1465</v>
+        <v>0.0902</v>
       </c>
       <c r="E2">
-        <v>0.257</v>
+        <v>-0.0126</v>
       </c>
       <c r="G2">
-        <v>0.2204776820673453</v>
+        <v>0.04852135815991238</v>
       </c>
       <c r="H2">
-        <v>0.2083007047768207</v>
+        <v>0.04852135815991238</v>
       </c>
       <c r="I2">
-        <v>-0.01641112064952106</v>
+        <v>-0.3428258488499453</v>
       </c>
       <c r="J2">
-        <v>-0.0138518446066054</v>
+        <v>-0.2594388354498101</v>
       </c>
       <c r="K2">
-        <v>60.42</v>
+        <v>23.3</v>
       </c>
       <c r="L2">
-        <v>0.2365700861393892</v>
+        <v>0.1276013143483023</v>
       </c>
       <c r="M2">
-        <v>5.1972</v>
+        <v>1.39</v>
       </c>
       <c r="N2">
-        <v>0.009347482014388488</v>
+        <v>0.003849349210744946</v>
       </c>
       <c r="O2">
-        <v>0.08601787487586891</v>
+        <v>0.05965665236051502</v>
       </c>
       <c r="P2">
-        <v>5.1972</v>
+        <v>1.39</v>
       </c>
       <c r="Q2">
-        <v>0.009347482014388488</v>
+        <v>0.003849349210744946</v>
       </c>
       <c r="R2">
-        <v>0.08601787487586891</v>
+        <v>0.05965665236051502</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>86.8</v>
+        <v>25.3</v>
       </c>
       <c r="V2">
-        <v>0.1561151079136691</v>
+        <v>0.07006369426751592</v>
       </c>
       <c r="W2">
-        <v>0.1754833612535571</v>
+        <v>0.09769392033542977</v>
       </c>
       <c r="X2">
-        <v>0.08411321950080164</v>
+        <v>0.07572721066544608</v>
       </c>
       <c r="Y2">
-        <v>0.09137014175275546</v>
+        <v>0.02196670966998369</v>
       </c>
       <c r="Z2">
-        <v>1.045328962988172</v>
+        <v>1.086626637229757</v>
       </c>
       <c r="AA2">
-        <v>0.02870122781432698</v>
+        <v>-0.2819131493316313</v>
       </c>
       <c r="AB2">
-        <v>0.07935321353972963</v>
+        <v>0.05613625286711757</v>
       </c>
       <c r="AC2">
-        <v>-0.05065198572540265</v>
+        <v>-0.3380494021987489</v>
       </c>
       <c r="AD2">
-        <v>4.653</v>
+        <v>169.5</v>
       </c>
       <c r="AE2">
-        <v>50.15700106943839</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>54.8100010694384</v>
+        <v>169.5</v>
       </c>
       <c r="AG2">
-        <v>-31.9899989305616</v>
+        <v>144.2</v>
       </c>
       <c r="AH2">
-        <v>0.08973330654945753</v>
+        <v>0.3194496796079909</v>
       </c>
       <c r="AI2">
-        <v>0.1617720872950418</v>
+        <v>0.3969555035128806</v>
       </c>
       <c r="AJ2">
-        <v>-0.06104845110832625</v>
+        <v>0.2853750247377795</v>
       </c>
       <c r="AK2">
-        <v>-0.126939402384063</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="AL2">
-        <v>0.032</v>
+        <v>2.37</v>
       </c>
       <c r="AM2">
-        <v>-1.974</v>
+        <v>2.098</v>
       </c>
       <c r="AN2">
-        <v>0.07972926662097328</v>
+        <v>19.13092550790068</v>
       </c>
       <c r="AO2">
-        <v>-101.25</v>
+        <v>-26.41350210970464</v>
       </c>
       <c r="AP2">
-        <v>-0.5481493990843317</v>
+        <v>16.27539503386004</v>
       </c>
       <c r="AQ2">
-        <v>1.641337386018237</v>
+        <v>-29.83794089609152</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Funcom SE (OB:FUNCOM)</t>
+          <t>AFC Ajax NV (ENXTAM:AJAX)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,246 +725,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.153</v>
+        <v>0.0902</v>
+      </c>
+      <c r="E3">
+        <v>-0.0126</v>
       </c>
       <c r="G3">
-        <v>0.4721830985915493</v>
+        <v>0.04852135815991238</v>
       </c>
       <c r="H3">
-        <v>0.3626760563380282</v>
+        <v>0.04852135815991238</v>
       </c>
       <c r="I3">
-        <v>0.08424710065878195</v>
+        <v>-0.3428258488499453</v>
       </c>
       <c r="J3">
-        <v>0.0793533352528674</v>
+        <v>-0.2594388354498101</v>
       </c>
       <c r="K3">
-        <v>1.32</v>
+        <v>23.3</v>
       </c>
       <c r="L3">
-        <v>0.04647887323943663</v>
+        <v>0.1276013143483023</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>1.39</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.003849349210744946</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0.05965665236051502</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>1.39</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.003849349210744946</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0.05965665236051502</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>16.3</v>
+        <v>25.3</v>
       </c>
       <c r="V3">
-        <v>0.1408815903197926</v>
+        <v>0.07006369426751592</v>
       </c>
       <c r="W3">
-        <v>0.02959641255605381</v>
+        <v>0.09769392033542977</v>
       </c>
       <c r="X3">
-        <v>0.08333880797618018</v>
+        <v>0.07572721066544608</v>
       </c>
       <c r="Y3">
-        <v>-0.05374239542012636</v>
+        <v>0.02196670966998369</v>
       </c>
       <c r="Z3">
-        <v>1.009745045650703</v>
+        <v>1.086626637229757</v>
       </c>
       <c r="AA3">
-        <v>0.08012663712744218</v>
+        <v>-0.2819131493316313</v>
       </c>
       <c r="AB3">
-        <v>0.07947872033656216</v>
+        <v>0.05613625286711757</v>
       </c>
       <c r="AC3">
-        <v>0.0006479167908800265</v>
+        <v>-0.3380494021987489</v>
       </c>
       <c r="AD3">
-        <v>4.61</v>
+        <v>169.5</v>
       </c>
       <c r="AE3">
-        <v>3.686911706452962</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>8.296911706452963</v>
+        <v>169.5</v>
       </c>
       <c r="AG3">
-        <v>-8.003088293547037</v>
+        <v>144.2</v>
       </c>
       <c r="AH3">
-        <v>0.06691224476698948</v>
+        <v>0.3194496796079909</v>
       </c>
       <c r="AI3">
-        <v>0.1556734047209045</v>
+        <v>0.3969555035128806</v>
       </c>
       <c r="AJ3">
-        <v>-0.0743112143768883</v>
+        <v>0.2853750247377795</v>
       </c>
       <c r="AK3">
-        <v>-0.2163177390871559</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AM3">
-        <v>-1.46</v>
+        <v>2.098</v>
       </c>
       <c r="AN3">
-        <v>0.5971502590673575</v>
+        <v>19.13092550790068</v>
+      </c>
+      <c r="AO3">
+        <v>-26.41350210970464</v>
       </c>
       <c r="AP3">
-        <v>-1.036669468076041</v>
+        <v>16.27539503386004</v>
       </c>
       <c r="AQ3">
-        <v>-1.226027397260274</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>AFC Ajax NV (ENXTAM:AJAX)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Entertainment</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>0.14</v>
-      </c>
-      <c r="E4">
-        <v>0.257</v>
-      </c>
-      <c r="G4">
-        <v>0.1889867841409691</v>
-      </c>
-      <c r="H4">
-        <v>0.1889867841409691</v>
-      </c>
-      <c r="I4">
-        <v>-0.02900448402025148</v>
-      </c>
-      <c r="J4">
-        <v>-0.02164293985267497</v>
-      </c>
-      <c r="K4">
-        <v>59.1</v>
-      </c>
-      <c r="L4">
-        <v>0.260352422907489</v>
-      </c>
-      <c r="M4">
-        <v>5.1972</v>
-      </c>
-      <c r="N4">
-        <v>0.01180377015671133</v>
-      </c>
-      <c r="O4">
-        <v>0.08793908629441624</v>
-      </c>
-      <c r="P4">
-        <v>5.1972</v>
-      </c>
-      <c r="Q4">
-        <v>0.01180377015671133</v>
-      </c>
-      <c r="R4">
-        <v>0.08793908629441624</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>70.5</v>
-      </c>
-      <c r="V4">
-        <v>0.1601181012945719</v>
-      </c>
-      <c r="W4">
-        <v>0.3213703099510604</v>
-      </c>
-      <c r="X4">
-        <v>0.08488763102542311</v>
-      </c>
-      <c r="Y4">
-        <v>0.2364826789256372</v>
-      </c>
-      <c r="Z4">
-        <v>1.049958168967495</v>
-      </c>
-      <c r="AA4">
-        <v>-0.02272418149878823</v>
-      </c>
-      <c r="AB4">
-        <v>0.0792277067428971</v>
-      </c>
-      <c r="AC4">
-        <v>-0.1019518882416853</v>
-      </c>
-      <c r="AD4">
-        <v>0.043</v>
-      </c>
-      <c r="AE4">
-        <v>46.47008936298543</v>
-      </c>
-      <c r="AF4">
-        <v>46.51308936298543</v>
-      </c>
-      <c r="AG4">
-        <v>-23.98691063701457</v>
-      </c>
-      <c r="AH4">
-        <v>0.09554609434156687</v>
-      </c>
-      <c r="AI4">
-        <v>0.1629105322868447</v>
-      </c>
-      <c r="AJ4">
-        <v>-0.05761747888762695</v>
-      </c>
-      <c r="AK4">
-        <v>-0.1115602343470347</v>
-      </c>
-      <c r="AL4">
-        <v>0.032</v>
-      </c>
-      <c r="AM4">
-        <v>-0.514</v>
-      </c>
-      <c r="AN4">
-        <v>0.0008491311216429699</v>
-      </c>
-      <c r="AO4">
-        <v>-157.1875</v>
-      </c>
-      <c r="AP4">
-        <v>-0.4736751705571597</v>
-      </c>
-      <c r="AQ4">
-        <v>9.785992217898833</v>
+        <v>-29.83794089609152</v>
       </c>
     </row>
   </sheetData>
